--- a/htmlbox pro/leftcolumn/TV Audio Video Game Media Player.xlsx
+++ b/htmlbox pro/leftcolumn/TV Audio Video Game Media Player.xlsx
@@ -151,19 +151,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,7 +172,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,6 +224,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -200,15 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -225,67 +302,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,30 +314,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -343,13 +336,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,43 +456,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,115 +492,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,11 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,7 +543,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,41 +578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -628,163 +592,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -794,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,11 +1122,11 @@
       <c r="A2">
         <v>836</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
@@ -1203,70 +1193,70 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
         <v>870</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
         <v>878</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
         <v>877</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
         <v>879</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
         <v>876</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
         <v>875</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
@@ -1336,7 +1326,7 @@
       <c r="A25">
         <v>588</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1344,7 +1334,7 @@
       <c r="A26">
         <v>589</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1352,7 +1342,7 @@
       <c r="A27">
         <v>590</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1360,64 +1350,64 @@
       <c r="A28">
         <v>591</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
         <v>410</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
         <v>468</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
         <v>469</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3">
         <v>470</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3">
         <v>410</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
@@ -1508,8 +1498,8 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -1518,12 +1508,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
+      <c r="A1">
         <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1020</v>
       </c>
       <c r="B2" t="str">
@@ -1532,7 +1522,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>831</v>
       </c>
       <c r="B3" t="str">
@@ -1541,7 +1531,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>834</v>
       </c>
       <c r="B4" t="str">
@@ -1550,7 +1540,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>837</v>
       </c>
       <c r="B5" t="str">
@@ -1559,7 +1549,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>838</v>
       </c>
       <c r="B6" t="str">
@@ -1568,7 +1558,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>839</v>
       </c>
       <c r="B7" t="str">
@@ -1577,7 +1567,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>835</v>
       </c>
       <c r="B8" t="str">
@@ -1586,7 +1576,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>840</v>
       </c>
       <c r="B9" t="str">
@@ -1595,7 +1585,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>455</v>
       </c>
       <c r="B10" t="str">
@@ -1604,7 +1594,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>201</v>
       </c>
       <c r="B11" t="str">
@@ -1613,7 +1603,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>232</v>
       </c>
       <c r="B12" t="str">
@@ -1622,7 +1612,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>592</v>
       </c>
       <c r="B13" t="str">
@@ -1631,7 +1621,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>593</v>
       </c>
       <c r="B14" t="str">
@@ -1640,7 +1630,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>594</v>
       </c>
       <c r="B15" t="str">
@@ -1649,7 +1639,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>595</v>
       </c>
       <c r="B16" t="str">
@@ -1658,7 +1648,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>200</v>
       </c>
       <c r="B17" t="str">
@@ -1667,7 +1657,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>588</v>
       </c>
       <c r="B18" t="str">
@@ -1676,7 +1666,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>589</v>
       </c>
       <c r="B19" t="str">
@@ -1685,7 +1675,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>590</v>
       </c>
       <c r="B20" t="str">
@@ -1694,7 +1684,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>591</v>
       </c>
       <c r="B21" t="str">
@@ -1703,7 +1693,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>401</v>
       </c>
       <c r="B22" t="str">
@@ -1712,7 +1702,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>662</v>
       </c>
       <c r="B23" t="str">
@@ -1721,7 +1711,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>664</v>
       </c>
       <c r="B24" t="str">
@@ -1730,7 +1720,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>665</v>
       </c>
       <c r="B25" t="str">
@@ -1739,7 +1729,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>666</v>
       </c>
       <c r="B26" t="str">
@@ -1748,7 +1738,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>667</v>
       </c>
       <c r="B27" t="str">
@@ -1757,7 +1747,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>668</v>
       </c>
       <c r="B28" t="str">
@@ -1766,7 +1756,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>669</v>
       </c>
       <c r="B29" t="str">
@@ -1775,7 +1765,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>202</v>
       </c>
       <c r="B30" t="str">
@@ -1784,7 +1774,7 @@
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>8.36102083183483e+90</v>
       </c>
     </row>
